--- a/P_Data_Extract_From_World_Development_Indicators .332.xlsx
+++ b/P_Data_Extract_From_World_Development_Indicators .332.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\OneDrive\Masaüstü\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B49637-8FC5-406D-BC39-25A7E2BB984B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED92B66-6233-4183-8964-084D9A23BFDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -594,7 +594,7 @@
   <dimension ref="A1:AV6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -765,145 +765,145 @@
         <v>69</v>
       </c>
       <c r="B2">
-        <v>3733125297999.9985</v>
+        <v>17285.148130000001</v>
       </c>
       <c r="C2">
-        <v>3941186943999.998</v>
+        <v>18075.937089999999</v>
       </c>
       <c r="D2">
-        <v>4107758274999.9985</v>
+        <v>18651.36636</v>
       </c>
       <c r="E2">
-        <v>4287532130999.9985</v>
+        <v>19262.448639999999</v>
       </c>
       <c r="F2">
-        <v>4389446209999.9985</v>
+        <v>19503.88221</v>
       </c>
       <c r="G2">
-        <v>4375742593999.998</v>
+        <v>19257.311450000001</v>
       </c>
       <c r="H2">
-        <v>4436416415999.998</v>
+        <v>19333.654729999998</v>
       </c>
       <c r="I2">
-        <v>4501357780999.998</v>
+        <v>19430.545020000001</v>
       </c>
       <c r="J2">
-        <v>4756183358999.998</v>
+        <v>20343.653160000002</v>
       </c>
       <c r="K2">
-        <v>5006395009999.998</v>
+        <v>21229.28023</v>
       </c>
       <c r="L2">
-        <v>5265600996999.998</v>
+        <v>22131.44112</v>
       </c>
       <c r="M2">
-        <v>5482971255999.998</v>
+        <v>22833.060249999999</v>
       </c>
       <c r="N2">
-        <v>5668725119999.999</v>
+        <v>23396.543470000001</v>
       </c>
       <c r="O2">
-        <v>5905501699999.999</v>
+        <v>24153.47997</v>
       </c>
       <c r="P2">
-        <v>6077682329000</v>
+        <v>24624.04567</v>
       </c>
       <c r="Q2">
-        <v>6200091507000</v>
+        <v>24837.821459999999</v>
       </c>
       <c r="R2">
-        <v>6211283832000</v>
+        <v>24552.37283</v>
       </c>
       <c r="S2">
-        <v>6439862956000</v>
+        <v>25105.307919999999</v>
       </c>
       <c r="T2">
-        <v>6664205675000</v>
+        <v>25639.547989999999</v>
       </c>
       <c r="U2">
-        <v>6922397805000</v>
+        <v>26308.300220000001</v>
       </c>
       <c r="V2">
-        <v>7126644350000</v>
+        <v>26763.924729999999</v>
       </c>
       <c r="W2">
-        <v>7373933133999.999</v>
+        <v>27372.299060000001</v>
       </c>
       <c r="X2">
-        <v>7651598721999.998</v>
+        <v>28063.0929</v>
       </c>
       <c r="Y2">
-        <v>8057980420999.998</v>
+        <v>29211.033449999999</v>
       </c>
       <c r="Z2">
-        <v>8491588375999.998</v>
+        <v>30431.437699999999</v>
       </c>
       <c r="AA2">
-        <v>8919298055999.998</v>
+        <v>31610.511210000001</v>
       </c>
       <c r="AB2">
-        <v>9140174003999.998</v>
+        <v>32074.27982</v>
       </c>
       <c r="AC2">
-        <v>9372603256999.998</v>
+        <v>32586.169379999999</v>
       </c>
       <c r="AD2">
-        <v>9669172129999.998</v>
+        <v>33329.568169999999</v>
       </c>
       <c r="AE2">
-        <v>10033699613999.998</v>
+        <v>34267.479729999999</v>
       </c>
       <c r="AF2">
-        <v>10389032324999.998</v>
+        <v>35155.495020000002</v>
       </c>
       <c r="AG2">
-        <v>10690039985999.998</v>
+        <v>35826.942620000002</v>
       </c>
       <c r="AH2">
-        <v>10949905661999.998</v>
+        <v>36350.502229999998</v>
       </c>
       <c r="AI2">
-        <v>10966333654999.996</v>
+        <v>36062.319150000003</v>
       </c>
       <c r="AJ2">
-        <v>10823168615999.996</v>
+        <v>35280.877110000001</v>
       </c>
       <c r="AK2">
-        <v>11029448713999.996</v>
+        <v>35656.258959999999</v>
       </c>
       <c r="AL2">
-        <v>11217120344999.998</v>
+        <v>36000.369180000002</v>
       </c>
       <c r="AM2">
-        <v>11370496932999.998</v>
+        <v>36225.887690000003</v>
       </c>
       <c r="AN2">
-        <v>11568799471999.998</v>
+        <v>36603.181080000002</v>
       </c>
       <c r="AO2">
-        <v>11896231643999.998</v>
+        <v>37364.14086</v>
       </c>
       <c r="AP2">
-        <v>12297438000000</v>
+        <v>38340.950839999998</v>
       </c>
       <c r="AQ2">
-        <v>12599282433724.898</v>
+        <v>38998.402800000003</v>
       </c>
       <c r="AR2">
-        <v>12931670052897.299</v>
+        <v>39774.807489999999</v>
       </c>
       <c r="AS2">
-        <v>13286129990946.898</v>
+        <v>40650.48098</v>
       </c>
       <c r="AT2">
-        <v>13571418969274.199</v>
+        <v>41334.696530000001</v>
       </c>
       <c r="AU2">
-        <v>13227552965892.197</v>
+        <v>39898.878940000002</v>
       </c>
       <c r="AV2">
-        <v>14387855411749.998</v>
+        <v>43330.52173</v>
       </c>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.35">

--- a/P_Data_Extract_From_World_Development_Indicators .332.xlsx
+++ b/P_Data_Extract_From_World_Development_Indicators .332.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\OneDrive\Masaüstü\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED92B66-6233-4183-8964-084D9A23BFDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41090912-CF9F-4C02-A8A4-46DA4FB35F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Series - Metadata" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Series - Metadata" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -258,6 +259,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -287,8 +291,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,24 +600,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="AM1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="AN17" sqref="AN17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.6328125" customWidth="1"/>
-    <col min="2" max="10" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="20" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="24" max="32" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="34" max="38" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="23" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="24" max="47" width="19.08984375" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="14.36328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -764,145 +763,145 @@
       <c r="A2" t="s">
         <v>69</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>17285.148130000001</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>18075.937089999999</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>18651.36636</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>19262.448639999999</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>19503.88221</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>19257.311450000001</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>19333.654729999998</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>19430.545020000001</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>20343.653160000002</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <v>21229.28023</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="3">
         <v>22131.44112</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="3">
         <v>22833.060249999999</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="3">
         <v>23396.543470000001</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="3">
         <v>24153.47997</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="3">
         <v>24624.04567</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="3">
         <v>24837.821459999999</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="3">
         <v>24552.37283</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="3">
         <v>25105.307919999999</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="3">
         <v>25639.547989999999</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="3">
         <v>26308.300220000001</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="3">
         <v>26763.924729999999</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="3">
         <v>27372.299060000001</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="3">
         <v>28063.0929</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" s="3">
         <v>29211.033449999999</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" s="3">
         <v>30431.437699999999</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" s="3">
         <v>31610.511210000001</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" s="3">
         <v>32074.27982</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" s="3">
         <v>32586.169379999999</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" s="3">
         <v>33329.568169999999</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" s="3">
         <v>34267.479729999999</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" s="3">
         <v>35155.495020000002</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" s="3">
         <v>35826.942620000002</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" s="3">
         <v>36350.502229999998</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" s="3">
         <v>36062.319150000003</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ2" s="3">
         <v>35280.877110000001</v>
       </c>
-      <c r="AK2">
+      <c r="AK2" s="3">
         <v>35656.258959999999</v>
       </c>
-      <c r="AL2">
+      <c r="AL2" s="3">
         <v>36000.369180000002</v>
       </c>
-      <c r="AM2">
+      <c r="AM2" s="3">
         <v>36225.887690000003</v>
       </c>
-      <c r="AN2">
+      <c r="AN2" s="3">
         <v>36603.181080000002</v>
       </c>
-      <c r="AO2">
+      <c r="AO2" s="3">
         <v>37364.14086</v>
       </c>
-      <c r="AP2">
+      <c r="AP2" s="3">
         <v>38340.950839999998</v>
       </c>
-      <c r="AQ2">
+      <c r="AQ2" s="3">
         <v>38998.402800000003</v>
       </c>
-      <c r="AR2">
+      <c r="AR2" s="3">
         <v>39774.807489999999</v>
       </c>
-      <c r="AS2">
+      <c r="AS2" s="3">
         <v>40650.48098</v>
       </c>
-      <c r="AT2">
+      <c r="AT2" s="3">
         <v>41334.696530000001</v>
       </c>
-      <c r="AU2">
+      <c r="AU2" s="3">
         <v>39898.878940000002</v>
       </c>
-      <c r="AV2">
+      <c r="AV2" s="3">
         <v>43330.52173</v>
       </c>
     </row>
@@ -910,145 +909,145 @@
       <c r="A3" t="s">
         <v>22</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>23284.391615511944</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>24224.259352819765</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>24949.178427358576</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>25954.231982302237</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>25504.956042231239</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>24691.338433598459</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <v>25499.387639619636</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>25554.194907916739</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="3">
         <v>26132.288652173505</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="3">
         <v>28004.79775648654</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="3">
         <v>28914.927931869981</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="3">
         <v>29652.848501886685</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="3">
         <v>30453.29270769408</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="3">
         <v>31923.576510855386</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="3">
         <v>32356.277336136591</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="3">
         <v>32417.20639728937</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="3">
         <v>32091.46079301061</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="3">
         <v>32746.881098427664</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="3">
         <v>33054.332094700818</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="3">
         <v>34109.930400796409</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="3">
         <v>34835.762025044271</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="3">
         <v>35927.4736334642</v>
       </c>
-      <c r="X3">
+      <c r="X3" s="3">
         <v>37420.882521429332</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" s="3">
         <v>39174.164357157846</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" s="3">
         <v>40340.471194038269</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" s="3">
         <v>41418.233811708917</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" s="3">
         <v>41634.570070798145</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" s="3">
         <v>41857.554871889472</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" s="3">
         <v>42297.268604805933</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" s="3">
         <v>43518.860378456455</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" s="3">
         <v>44306.583470384408</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" s="3">
         <v>45531.812707957419</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" s="3">
         <v>45245.310589251632</v>
       </c>
-      <c r="AI3">
+      <c r="AI3" s="3">
         <v>43616.719411616308</v>
       </c>
-      <c r="AJ3">
+      <c r="AJ3" s="3">
         <v>42771.43334880154</v>
       </c>
-      <c r="AK3">
+      <c r="AK3" s="3">
         <v>44247.7128088397</v>
       </c>
-      <c r="AL3">
+      <c r="AL3" s="3">
         <v>44827.374440871186</v>
       </c>
-      <c r="AM3">
+      <c r="AM3" s="3">
         <v>46213.211840482232</v>
       </c>
-      <c r="AN3">
+      <c r="AN3" s="3">
         <v>46541.69085959591</v>
       </c>
-      <c r="AO3">
+      <c r="AO3" s="3">
         <v>47749.146639035644</v>
       </c>
-      <c r="AP3">
+      <c r="AP3" s="3">
         <v>49077.966343570617</v>
       </c>
-      <c r="AQ3">
+      <c r="AQ3" s="3">
         <v>48992.501523808132</v>
       </c>
-      <c r="AR3">
+      <c r="AR3" s="3">
         <v>49991.960302989923</v>
       </c>
-      <c r="AS3">
+      <c r="AS3" s="3">
         <v>51219.048073053469</v>
       </c>
-      <c r="AT3">
+      <c r="AT3" s="3">
         <v>52190.192657029715</v>
       </c>
-      <c r="AU3">
+      <c r="AU3" s="3">
         <v>49670.46560153555</v>
       </c>
-      <c r="AV3">
+      <c r="AV3" s="3">
         <v>52320.656091581986</v>
       </c>
     </row>
@@ -1056,145 +1055,145 @@
       <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>9.1431468649653507</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>5.7448126354908498</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>6.5016839947284</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>7.6309638388560597</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>11.2544711292795</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>13.549201974968399</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>10.3347153402771</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <v>6.1314270002749298</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <v>3.21243523316065</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="1">
         <v>4.3005354752342901</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="1">
         <v>3.5456441520936499</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="1">
         <v>1.8980477223427601</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="1">
         <v>3.6645632175168998</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="1">
         <v>4.0777411074441297</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="1">
         <v>4.8270030300894398</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="1">
         <v>5.3979564399032496</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="1">
         <v>4.2349639645384904</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="1">
         <v>3.0288196781496901</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="1">
         <v>2.9516569663855901</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="1">
         <v>2.60744159215453</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="1">
         <v>2.8054196885366198</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="1">
         <v>2.9312041999344101</v>
       </c>
-      <c r="X4">
+      <c r="X4" s="1">
         <v>2.3376899373073501</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" s="1">
         <v>1.5522790987436399</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" s="1">
         <v>2.1880271969735801</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" s="1">
         <v>3.3768572714992899</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" s="1">
         <v>2.8261711188540701</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" s="1">
         <v>1.5860316265060099</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" s="1">
         <v>2.2700949733611502</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" s="1">
         <v>2.6772366930917202</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" s="1">
         <v>3.3927468454955001</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" s="1">
         <v>3.2259441007040399</v>
       </c>
-      <c r="AH4">
+      <c r="AH4" s="1">
         <v>2.8526724815013802</v>
       </c>
-      <c r="AI4">
+      <c r="AI4" s="1">
         <v>3.8391002966509999</v>
       </c>
-      <c r="AJ4">
+      <c r="AJ4" s="1">
         <v>-0.355546266299747</v>
       </c>
-      <c r="AK4">
+      <c r="AK4" s="1">
         <v>1.6400434423899</v>
       </c>
-      <c r="AL4">
+      <c r="AL4" s="1">
         <v>3.1568415686220002</v>
       </c>
-      <c r="AM4">
+      <c r="AM4" s="1">
         <v>2.0693372652606699</v>
       </c>
-      <c r="AN4">
+      <c r="AN4" s="1">
         <v>1.46483265562717</v>
       </c>
-      <c r="AO4">
+      <c r="AO4" s="1">
         <v>1.62222297740817</v>
       </c>
-      <c r="AP4">
+      <c r="AP4" s="1">
         <v>0.118627135552451</v>
       </c>
-      <c r="AQ4">
+      <c r="AQ4" s="1">
         <v>1.26158320570536</v>
       </c>
-      <c r="AR4">
+      <c r="AR4" s="1">
         <v>2.1301100036596101</v>
       </c>
-      <c r="AS4">
+      <c r="AS4" s="1">
         <v>2.44258329692817</v>
       </c>
-      <c r="AT4">
+      <c r="AT4" s="1">
         <v>1.8122100752602099</v>
       </c>
-      <c r="AU4">
+      <c r="AU4" s="1">
         <v>1.23358439630629</v>
       </c>
-      <c r="AV4">
+      <c r="AV4" s="1">
         <v>4.6978588636374203</v>
       </c>
     </row>
@@ -1202,145 +1201,145 @@
       <c r="A5" t="s">
         <v>71</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>35.6</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>35.6</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>35.5</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>34.799999999999997</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>34.799999999999997</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <v>34.700000000000003</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <v>35.5</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <v>36.700000000000003</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="2">
         <v>37.299999999999997</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="2">
         <v>37.299999999999997</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="2">
         <v>37.6</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="2">
         <v>37.6</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="2">
         <v>37.200000000000003</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="2">
         <v>37.700000000000003</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="2">
         <v>38.200000000000003</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="2">
         <v>38.299999999999997</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="2">
         <v>38</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="2">
         <v>38.4</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="2">
         <v>40.4</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="2">
         <v>40</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="2">
         <v>39.9</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="2">
         <v>40.299999999999997</v>
       </c>
-      <c r="X5">
+      <c r="X5" s="2">
         <v>40.5</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" s="2">
         <v>40</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" s="2">
         <v>40</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" s="2">
         <v>40.1</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" s="2">
         <v>40.6</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" s="2">
         <v>40.4</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" s="2">
         <v>40.799999999999997</v>
       </c>
-      <c r="AE5">
+      <c r="AE5" s="2">
         <v>40.299999999999997</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" s="2">
         <v>41</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" s="2">
         <v>41.4</v>
       </c>
-      <c r="AH5">
+      <c r="AH5" s="2">
         <v>40.799999999999997</v>
       </c>
-      <c r="AI5">
+      <c r="AI5" s="2">
         <v>40.799999999999997</v>
       </c>
-      <c r="AJ5">
+      <c r="AJ5" s="2">
         <v>40.6</v>
       </c>
-      <c r="AK5">
+      <c r="AK5" s="2">
         <v>40</v>
       </c>
-      <c r="AL5">
+      <c r="AL5" s="2">
         <v>40.9</v>
       </c>
-      <c r="AM5">
+      <c r="AM5" s="2">
         <v>40.9</v>
       </c>
-      <c r="AN5">
+      <c r="AN5" s="2">
         <v>40.6</v>
       </c>
-      <c r="AO5">
+      <c r="AO5" s="2">
         <v>41.5</v>
       </c>
-      <c r="AP5">
+      <c r="AP5" s="2">
         <v>41.2</v>
       </c>
-      <c r="AQ5">
+      <c r="AQ5" s="2">
         <v>41.1</v>
       </c>
-      <c r="AR5">
+      <c r="AR5" s="2">
         <v>41.2</v>
       </c>
-      <c r="AS5">
+      <c r="AS5" s="2">
         <v>41.4</v>
       </c>
-      <c r="AT5">
+      <c r="AT5" s="2">
         <v>41.5</v>
       </c>
-      <c r="AU5">
+      <c r="AU5" s="2">
         <v>39.700000000000003</v>
       </c>
-      <c r="AV5">
+      <c r="AV5" s="2">
         <v>39.700000000000003</v>
       </c>
     </row>
@@ -1348,145 +1347,1173 @@
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>703800000000</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>883100000000</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>834238000000</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>861961000000</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>993590900000</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>1359797800000</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>1263560700000</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>1456865200000</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>1809034400000</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <v>1602159700000</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="3">
         <v>2300857900000</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="3">
         <v>2537942200000</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="3">
         <v>2531767700000</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="3">
         <v>2779940700000</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="3">
         <v>3382233600000</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="3">
         <v>3093448500000</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="3">
         <v>4159595200000</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="3">
         <v>4545844000000</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="3">
         <v>5251079630000</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="3">
         <v>5137739860000</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="3">
         <v>6952026000000</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="3">
         <v>8480497000000</v>
       </c>
-      <c r="X6">
+      <c r="X6" s="3">
         <v>10770143000000</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" s="3">
         <v>12922580000000</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" s="3">
         <v>14777387400000</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" s="3">
         <v>15107751000000</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" s="3">
         <v>13983666000000</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" s="3">
         <v>11054430000000</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" s="3">
         <v>14266265650000</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" s="3">
         <v>16323726330000</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" s="3">
         <v>17000864469999.998</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" s="3">
         <v>19568972500000</v>
       </c>
-      <c r="AH6">
+      <c r="AH6" s="3">
         <v>19922279820000</v>
       </c>
-      <c r="AI6">
+      <c r="AI6" s="3">
         <v>11590277780000</v>
       </c>
-      <c r="AJ6">
+      <c r="AJ6" s="3">
         <v>15077285740000</v>
       </c>
-      <c r="AK6">
+      <c r="AK6" s="3">
         <v>17283451680000</v>
       </c>
-      <c r="AL6">
+      <c r="AL6" s="3">
         <v>15640707040000</v>
       </c>
-      <c r="AM6">
+      <c r="AM6" s="3">
         <v>18668333210000</v>
       </c>
-      <c r="AN6">
+      <c r="AN6" s="3">
         <v>24034853520000</v>
       </c>
-      <c r="AO6">
+      <c r="AO6" s="3">
         <v>26330589190000</v>
       </c>
-      <c r="AP6">
+      <c r="AP6" s="3">
         <v>25067539600000</v>
       </c>
-      <c r="AQ6">
+      <c r="AQ6" s="3">
         <v>27352200720000</v>
       </c>
-      <c r="AR6">
+      <c r="AR6" s="3">
         <v>32120702650000</v>
       </c>
-      <c r="AS6">
+      <c r="AS6" s="3">
         <v>30436313050000</v>
       </c>
-      <c r="AT6">
+      <c r="AT6" s="3">
         <v>34085727370000</v>
       </c>
-      <c r="AU6">
+      <c r="AU6" s="3">
         <v>41569861770000</v>
       </c>
-      <c r="AV6">
+      <c r="AV6" s="3">
+        <v>48548538120000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA71CFF0-CB32-4CD0-9D47-4B0745B999FC}">
+  <dimension ref="A1:AU47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="35.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A1" s="3">
+        <v>17285.148130000001</v>
+      </c>
+      <c r="B1" s="3">
+        <v>23284.391615511944</v>
+      </c>
+      <c r="C1" s="1">
+        <v>9.1431468649653507</v>
+      </c>
+      <c r="D1" s="2">
+        <v>35.6</v>
+      </c>
+      <c r="E1" s="3">
+        <v>703800000000</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="3"/>
+      <c r="AQ1" s="3"/>
+      <c r="AR1" s="3"/>
+      <c r="AS1" s="3"/>
+      <c r="AT1" s="3"/>
+      <c r="AU1" s="3"/>
+    </row>
+    <row r="2" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>18075.937089999999</v>
+      </c>
+      <c r="B2" s="3">
+        <v>24224.259352819765</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5.7448126354908498</v>
+      </c>
+      <c r="D2" s="2">
+        <v>35.6</v>
+      </c>
+      <c r="E2" s="3">
+        <v>883100000000</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="3"/>
+      <c r="AS2" s="3"/>
+      <c r="AT2" s="3"/>
+      <c r="AU2" s="3"/>
+    </row>
+    <row r="3" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>18651.36636</v>
+      </c>
+      <c r="B3" s="3">
+        <v>24949.178427358576</v>
+      </c>
+      <c r="C3" s="1">
+        <v>6.5016839947284</v>
+      </c>
+      <c r="D3" s="2">
+        <v>35.5</v>
+      </c>
+      <c r="E3" s="3">
+        <v>834238000000</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+    </row>
+    <row r="4" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>19262.448639999999</v>
+      </c>
+      <c r="B4" s="3">
+        <v>25954.231982302237</v>
+      </c>
+      <c r="C4" s="1">
+        <v>7.6309638388560597</v>
+      </c>
+      <c r="D4" s="2">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="E4" s="3">
+        <v>861961000000</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2"/>
+      <c r="AO4" s="2"/>
+      <c r="AP4" s="2"/>
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="2"/>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="2"/>
+      <c r="AU4" s="2"/>
+    </row>
+    <row r="5" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>19503.88221</v>
+      </c>
+      <c r="B5" s="3">
+        <v>25504.956042231239</v>
+      </c>
+      <c r="C5" s="1">
+        <v>11.2544711292795</v>
+      </c>
+      <c r="D5" s="2">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="E5" s="3">
+        <v>993590900000</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="3"/>
+      <c r="AO5" s="3"/>
+      <c r="AP5" s="3"/>
+      <c r="AQ5" s="3"/>
+      <c r="AR5" s="3"/>
+      <c r="AS5" s="3"/>
+      <c r="AT5" s="3"/>
+      <c r="AU5" s="3"/>
+    </row>
+    <row r="6" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>19257.311450000001</v>
+      </c>
+      <c r="B6" s="3">
+        <v>24691.338433598459</v>
+      </c>
+      <c r="C6" s="1">
+        <v>13.549201974968399</v>
+      </c>
+      <c r="D6" s="2">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1359797800000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>19333.654729999998</v>
+      </c>
+      <c r="B7" s="3">
+        <v>25499.387639619636</v>
+      </c>
+      <c r="C7" s="1">
+        <v>10.3347153402771</v>
+      </c>
+      <c r="D7" s="2">
+        <v>35.5</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1263560700000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>19430.545020000001</v>
+      </c>
+      <c r="B8" s="3">
+        <v>25554.194907916739</v>
+      </c>
+      <c r="C8" s="1">
+        <v>6.1314270002749298</v>
+      </c>
+      <c r="D8" s="2">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1456865200000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>20343.653160000002</v>
+      </c>
+      <c r="B9" s="3">
+        <v>26132.288652173505</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3.21243523316065</v>
+      </c>
+      <c r="D9" s="2">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1809034400000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>21229.28023</v>
+      </c>
+      <c r="B10" s="3">
+        <v>28004.79775648654</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4.3005354752342901</v>
+      </c>
+      <c r="D10" s="2">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1602159700000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>22131.44112</v>
+      </c>
+      <c r="B11" s="3">
+        <v>28914.927931869981</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3.5456441520936499</v>
+      </c>
+      <c r="D11" s="2">
+        <v>37.6</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2300857900000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>22833.060249999999</v>
+      </c>
+      <c r="B12" s="3">
+        <v>29652.848501886685</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.8980477223427601</v>
+      </c>
+      <c r="D12" s="2">
+        <v>37.6</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2537942200000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
+        <v>23396.543470000001</v>
+      </c>
+      <c r="B13" s="3">
+        <v>30453.29270769408</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3.6645632175168998</v>
+      </c>
+      <c r="D13" s="2">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2531767700000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <v>24153.47997</v>
+      </c>
+      <c r="B14" s="3">
+        <v>31923.576510855386</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4.0777411074441297</v>
+      </c>
+      <c r="D14" s="2">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2779940700000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
+        <v>24624.04567</v>
+      </c>
+      <c r="B15" s="3">
+        <v>32356.277336136591</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4.8270030300894398</v>
+      </c>
+      <c r="D15" s="2">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="E15" s="3">
+        <v>3382233600000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
+        <v>24837.821459999999</v>
+      </c>
+      <c r="B16" s="3">
+        <v>32417.20639728937</v>
+      </c>
+      <c r="C16" s="1">
+        <v>5.3979564399032496</v>
+      </c>
+      <c r="D16" s="2">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="E16" s="3">
+        <v>3093448500000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
+        <v>24552.37283</v>
+      </c>
+      <c r="B17" s="3">
+        <v>32091.46079301061</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4.2349639645384904</v>
+      </c>
+      <c r="D17" s="2">
+        <v>38</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4159595200000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
+        <v>25105.307919999999</v>
+      </c>
+      <c r="B18" s="3">
+        <v>32746.881098427664</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3.0288196781496901</v>
+      </c>
+      <c r="D18" s="2">
+        <v>38.4</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4545844000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
+        <v>25639.547989999999</v>
+      </c>
+      <c r="B19" s="3">
+        <v>33054.332094700818</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2.9516569663855901</v>
+      </c>
+      <c r="D19" s="2">
+        <v>40.4</v>
+      </c>
+      <c r="E19" s="3">
+        <v>5251079630000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
+        <v>26308.300220000001</v>
+      </c>
+      <c r="B20" s="3">
+        <v>34109.930400796409</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2.60744159215453</v>
+      </c>
+      <c r="D20" s="2">
+        <v>40</v>
+      </c>
+      <c r="E20" s="3">
+        <v>5137739860000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
+        <v>26763.924729999999</v>
+      </c>
+      <c r="B21" s="3">
+        <v>34835.762025044271</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2.8054196885366198</v>
+      </c>
+      <c r="D21" s="2">
+        <v>39.9</v>
+      </c>
+      <c r="E21" s="3">
+        <v>6952026000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
+        <v>27372.299060000001</v>
+      </c>
+      <c r="B22" s="3">
+        <v>35927.4736334642</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2.9312041999344101</v>
+      </c>
+      <c r="D22" s="2">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="E22" s="3">
+        <v>8480497000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
+        <v>28063.0929</v>
+      </c>
+      <c r="B23" s="3">
+        <v>37420.882521429332</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2.3376899373073501</v>
+      </c>
+      <c r="D23" s="2">
+        <v>40.5</v>
+      </c>
+      <c r="E23" s="3">
+        <v>10770143000000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
+        <v>29211.033449999999</v>
+      </c>
+      <c r="B24" s="3">
+        <v>39174.164357157846</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1.5522790987436399</v>
+      </c>
+      <c r="D24" s="2">
+        <v>40</v>
+      </c>
+      <c r="E24" s="3">
+        <v>12922580000000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="3">
+        <v>30431.437699999999</v>
+      </c>
+      <c r="B25" s="3">
+        <v>40340.471194038269</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2.1880271969735801</v>
+      </c>
+      <c r="D25" s="2">
+        <v>40</v>
+      </c>
+      <c r="E25" s="3">
+        <v>14777387400000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
+        <v>31610.511210000001</v>
+      </c>
+      <c r="B26" s="3">
+        <v>41418.233811708917</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3.3768572714992899</v>
+      </c>
+      <c r="D26" s="2">
+        <v>40.1</v>
+      </c>
+      <c r="E26" s="3">
+        <v>15107751000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="3">
+        <v>32074.27982</v>
+      </c>
+      <c r="B27" s="3">
+        <v>41634.570070798145</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2.8261711188540701</v>
+      </c>
+      <c r="D27" s="2">
+        <v>40.6</v>
+      </c>
+      <c r="E27" s="3">
+        <v>13983666000000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
+        <v>32586.169379999999</v>
+      </c>
+      <c r="B28" s="3">
+        <v>41857.554871889472</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1.5860316265060099</v>
+      </c>
+      <c r="D28" s="2">
+        <v>40.4</v>
+      </c>
+      <c r="E28" s="3">
+        <v>11054430000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
+        <v>33329.568169999999</v>
+      </c>
+      <c r="B29" s="3">
+        <v>42297.268604805933</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2.2700949733611502</v>
+      </c>
+      <c r="D29" s="2">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="E29" s="3">
+        <v>14266265650000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="3">
+        <v>34267.479729999999</v>
+      </c>
+      <c r="B30" s="3">
+        <v>43518.860378456455</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2.6772366930917202</v>
+      </c>
+      <c r="D30" s="2">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="E30" s="3">
+        <v>16323726330000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="3">
+        <v>35155.495020000002</v>
+      </c>
+      <c r="B31" s="3">
+        <v>44306.583470384408</v>
+      </c>
+      <c r="C31" s="1">
+        <v>3.3927468454955001</v>
+      </c>
+      <c r="D31" s="2">
+        <v>41</v>
+      </c>
+      <c r="E31" s="3">
+        <v>17000864469999.998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="3">
+        <v>35826.942620000002</v>
+      </c>
+      <c r="B32" s="3">
+        <v>45531.812707957419</v>
+      </c>
+      <c r="C32" s="1">
+        <v>3.2259441007040399</v>
+      </c>
+      <c r="D32" s="2">
+        <v>41.4</v>
+      </c>
+      <c r="E32" s="3">
+        <v>19568972500000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="3">
+        <v>36350.502229999998</v>
+      </c>
+      <c r="B33" s="3">
+        <v>45245.310589251632</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2.8526724815013802</v>
+      </c>
+      <c r="D33" s="2">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="E33" s="3">
+        <v>19922279820000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="3">
+        <v>36062.319150000003</v>
+      </c>
+      <c r="B34" s="3">
+        <v>43616.719411616308</v>
+      </c>
+      <c r="C34" s="1">
+        <v>3.8391002966509999</v>
+      </c>
+      <c r="D34" s="2">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="E34" s="3">
+        <v>11590277780000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="3">
+        <v>35280.877110000001</v>
+      </c>
+      <c r="B35" s="3">
+        <v>42771.43334880154</v>
+      </c>
+      <c r="C35" s="1">
+        <v>-0.355546266299747</v>
+      </c>
+      <c r="D35" s="2">
+        <v>40.6</v>
+      </c>
+      <c r="E35" s="3">
+        <v>15077285740000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="3">
+        <v>35656.258959999999</v>
+      </c>
+      <c r="B36" s="3">
+        <v>44247.7128088397</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1.6400434423899</v>
+      </c>
+      <c r="D36" s="2">
+        <v>40</v>
+      </c>
+      <c r="E36" s="3">
+        <v>17283451680000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="3">
+        <v>36000.369180000002</v>
+      </c>
+      <c r="B37" s="3">
+        <v>44827.374440871186</v>
+      </c>
+      <c r="C37" s="1">
+        <v>3.1568415686220002</v>
+      </c>
+      <c r="D37" s="2">
+        <v>40.9</v>
+      </c>
+      <c r="E37" s="3">
+        <v>15640707040000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="3">
+        <v>36225.887690000003</v>
+      </c>
+      <c r="B38" s="3">
+        <v>46213.211840482232</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2.0693372652606699</v>
+      </c>
+      <c r="D38" s="2">
+        <v>40.9</v>
+      </c>
+      <c r="E38" s="3">
+        <v>18668333210000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="3">
+        <v>36603.181080000002</v>
+      </c>
+      <c r="B39" s="3">
+        <v>46541.69085959591</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1.46483265562717</v>
+      </c>
+      <c r="D39" s="2">
+        <v>40.6</v>
+      </c>
+      <c r="E39" s="3">
+        <v>24034853520000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="3">
+        <v>37364.14086</v>
+      </c>
+      <c r="B40" s="3">
+        <v>47749.146639035644</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1.62222297740817</v>
+      </c>
+      <c r="D40" s="2">
+        <v>41.5</v>
+      </c>
+      <c r="E40" s="3">
+        <v>26330589190000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="3">
+        <v>38340.950839999998</v>
+      </c>
+      <c r="B41" s="3">
+        <v>49077.966343570617</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.118627135552451</v>
+      </c>
+      <c r="D41" s="2">
+        <v>41.2</v>
+      </c>
+      <c r="E41" s="3">
+        <v>25067539600000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="3">
+        <v>38998.402800000003</v>
+      </c>
+      <c r="B42" s="3">
+        <v>48992.501523808132</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1.26158320570536</v>
+      </c>
+      <c r="D42" s="2">
+        <v>41.1</v>
+      </c>
+      <c r="E42" s="3">
+        <v>27352200720000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="3">
+        <v>39774.807489999999</v>
+      </c>
+      <c r="B43" s="3">
+        <v>49991.960302989923</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2.1301100036596101</v>
+      </c>
+      <c r="D43" s="2">
+        <v>41.2</v>
+      </c>
+      <c r="E43" s="3">
+        <v>32120702650000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="3">
+        <v>40650.48098</v>
+      </c>
+      <c r="B44" s="3">
+        <v>51219.048073053469</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2.44258329692817</v>
+      </c>
+      <c r="D44" s="2">
+        <v>41.4</v>
+      </c>
+      <c r="E44" s="3">
+        <v>30436313050000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="3">
+        <v>41334.696530000001</v>
+      </c>
+      <c r="B45" s="3">
+        <v>52190.192657029715</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1.8122100752602099</v>
+      </c>
+      <c r="D45" s="2">
+        <v>41.5</v>
+      </c>
+      <c r="E45" s="3">
+        <v>34085727370000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="3">
+        <v>39898.878940000002</v>
+      </c>
+      <c r="B46" s="3">
+        <v>49670.46560153555</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1.23358439630629</v>
+      </c>
+      <c r="D46" s="2">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="E46" s="3">
+        <v>41569861770000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="3">
+        <v>43330.52173</v>
+      </c>
+      <c r="B47" s="3">
+        <v>52320.656091581986</v>
+      </c>
+      <c r="C47" s="1">
+        <v>4.6978588636374203</v>
+      </c>
+      <c r="D47" s="2">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="E47" s="3">
         <v>48548538120000</v>
       </c>
     </row>
@@ -1495,7 +2522,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q7"/>
   <sheetViews>

--- a/P_Data_Extract_From_World_Development_Indicators .332.xlsx
+++ b/P_Data_Extract_From_World_Development_Indicators .332.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\OneDrive\Masaüstü\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\OneDrive\Masaüstü\ec 332 project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41090912-CF9F-4C02-A8A4-46DA4FB35F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA448F6-00A2-4965-BF63-BF7E91639D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="75">
   <si>
     <t>Development relevance</t>
   </si>
@@ -253,6 +253,15 @@
   </si>
   <si>
     <t>Gini index</t>
+  </si>
+  <si>
+    <t>Country Name</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>Japan</t>
   </si>
 </sst>
 </file>
@@ -260,7 +269,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -294,7 +303,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -598,895 +607,1212 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV6"/>
+  <dimension ref="A1:AW8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="AN17" sqref="AN17"/>
+    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.6328125" customWidth="1"/>
-    <col min="2" max="6" width="16.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="23" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="24" max="47" width="19.08984375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="14.36328125" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="19.6328125" customWidth="1"/>
+    <col min="3" max="7" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="24" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="25" max="48" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="17.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
         <v>62</v>
       </c>
-      <c r="B1">
+      <c r="C1">
         <v>1975</v>
       </c>
-      <c r="C1">
+      <c r="D1">
         <v>1976</v>
       </c>
-      <c r="D1">
+      <c r="E1">
         <v>1977</v>
       </c>
-      <c r="E1">
+      <c r="F1">
         <v>1978</v>
       </c>
-      <c r="F1">
+      <c r="G1">
         <v>1979</v>
       </c>
-      <c r="G1">
+      <c r="H1">
         <v>1980</v>
       </c>
-      <c r="H1">
+      <c r="I1">
         <v>1981</v>
       </c>
-      <c r="I1">
+      <c r="J1">
         <v>1982</v>
       </c>
-      <c r="J1">
+      <c r="K1">
         <v>1983</v>
       </c>
-      <c r="K1">
+      <c r="L1">
         <v>1984</v>
       </c>
-      <c r="L1">
+      <c r="M1">
         <v>1985</v>
       </c>
-      <c r="M1">
+      <c r="N1">
         <v>1986</v>
       </c>
-      <c r="N1">
+      <c r="O1">
         <v>1987</v>
       </c>
-      <c r="O1">
+      <c r="P1">
         <v>1988</v>
       </c>
-      <c r="P1">
+      <c r="Q1">
         <v>1989</v>
       </c>
-      <c r="Q1">
+      <c r="R1">
         <v>1990</v>
       </c>
-      <c r="R1">
+      <c r="S1">
         <v>1991</v>
       </c>
-      <c r="S1">
+      <c r="T1">
         <v>1992</v>
       </c>
-      <c r="T1">
+      <c r="U1">
         <v>1993</v>
       </c>
-      <c r="U1">
+      <c r="V1">
         <v>1994</v>
       </c>
-      <c r="V1">
+      <c r="W1">
         <v>1995</v>
       </c>
-      <c r="W1">
+      <c r="X1">
         <v>1996</v>
       </c>
-      <c r="X1">
+      <c r="Y1">
         <v>1997</v>
       </c>
-      <c r="Y1">
+      <c r="Z1">
         <v>1998</v>
       </c>
-      <c r="Z1">
+      <c r="AA1">
         <v>1999</v>
       </c>
-      <c r="AA1">
+      <c r="AB1">
         <v>2000</v>
       </c>
-      <c r="AB1">
+      <c r="AC1">
         <v>2001</v>
       </c>
-      <c r="AC1">
+      <c r="AD1">
         <v>2002</v>
       </c>
-      <c r="AD1">
+      <c r="AE1">
         <v>2003</v>
       </c>
-      <c r="AE1">
+      <c r="AF1">
         <v>2004</v>
       </c>
-      <c r="AF1">
+      <c r="AG1">
         <v>2005</v>
       </c>
-      <c r="AG1">
+      <c r="AH1">
         <v>2006</v>
       </c>
-      <c r="AH1">
+      <c r="AI1">
         <v>2007</v>
       </c>
-      <c r="AI1">
+      <c r="AJ1">
         <v>2008</v>
       </c>
-      <c r="AJ1">
+      <c r="AK1">
         <v>2009</v>
       </c>
-      <c r="AK1">
+      <c r="AL1">
         <v>2010</v>
       </c>
-      <c r="AL1">
+      <c r="AM1">
         <v>2011</v>
       </c>
-      <c r="AM1">
+      <c r="AN1">
         <v>2012</v>
       </c>
-      <c r="AN1">
+      <c r="AO1">
         <v>2013</v>
       </c>
-      <c r="AO1">
+      <c r="AP1">
         <v>2014</v>
       </c>
-      <c r="AP1">
+      <c r="AQ1">
         <v>2015</v>
       </c>
-      <c r="AQ1">
+      <c r="AR1">
         <v>2016</v>
       </c>
-      <c r="AR1">
+      <c r="AS1">
         <v>2017</v>
       </c>
-      <c r="AS1">
+      <c r="AT1">
         <v>2018</v>
       </c>
-      <c r="AT1">
+      <c r="AU1">
         <v>2019</v>
       </c>
-      <c r="AU1">
+      <c r="AV1">
         <v>2020</v>
       </c>
-      <c r="AV1">
+      <c r="AW1">
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="3">
+      <c r="C2" s="3">
         <v>17285.148130000001</v>
       </c>
-      <c r="C2" s="3">
+      <c r="D2" s="3">
         <v>18075.937089999999</v>
       </c>
-      <c r="D2" s="3">
+      <c r="E2" s="3">
         <v>18651.36636</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F2" s="3">
         <v>19262.448639999999</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G2" s="3">
         <v>19503.88221</v>
       </c>
-      <c r="G2" s="3">
+      <c r="H2" s="3">
         <v>19257.311450000001</v>
       </c>
-      <c r="H2" s="3">
+      <c r="I2" s="3">
         <v>19333.654729999998</v>
       </c>
-      <c r="I2" s="3">
+      <c r="J2" s="3">
         <v>19430.545020000001</v>
       </c>
-      <c r="J2" s="3">
+      <c r="K2" s="3">
         <v>20343.653160000002</v>
       </c>
-      <c r="K2" s="3">
+      <c r="L2" s="3">
         <v>21229.28023</v>
       </c>
-      <c r="L2" s="3">
+      <c r="M2" s="3">
         <v>22131.44112</v>
       </c>
-      <c r="M2" s="3">
+      <c r="N2" s="3">
         <v>22833.060249999999</v>
       </c>
-      <c r="N2" s="3">
+      <c r="O2" s="3">
         <v>23396.543470000001</v>
       </c>
-      <c r="O2" s="3">
+      <c r="P2" s="3">
         <v>24153.47997</v>
       </c>
-      <c r="P2" s="3">
+      <c r="Q2" s="3">
         <v>24624.04567</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="R2" s="3">
         <v>24837.821459999999</v>
       </c>
-      <c r="R2" s="3">
+      <c r="S2" s="3">
         <v>24552.37283</v>
       </c>
-      <c r="S2" s="3">
+      <c r="T2" s="3">
         <v>25105.307919999999</v>
       </c>
-      <c r="T2" s="3">
+      <c r="U2" s="3">
         <v>25639.547989999999</v>
       </c>
-      <c r="U2" s="3">
+      <c r="V2" s="3">
         <v>26308.300220000001</v>
       </c>
-      <c r="V2" s="3">
+      <c r="W2" s="3">
         <v>26763.924729999999</v>
       </c>
-      <c r="W2" s="3">
+      <c r="X2" s="3">
         <v>27372.299060000001</v>
       </c>
-      <c r="X2" s="3">
+      <c r="Y2" s="3">
         <v>28063.0929</v>
       </c>
-      <c r="Y2" s="3">
+      <c r="Z2" s="3">
         <v>29211.033449999999</v>
       </c>
-      <c r="Z2" s="3">
+      <c r="AA2" s="3">
         <v>30431.437699999999</v>
       </c>
-      <c r="AA2" s="3">
+      <c r="AB2" s="3">
         <v>31610.511210000001</v>
       </c>
-      <c r="AB2" s="3">
+      <c r="AC2" s="3">
         <v>32074.27982</v>
       </c>
-      <c r="AC2" s="3">
+      <c r="AD2" s="3">
         <v>32586.169379999999</v>
       </c>
-      <c r="AD2" s="3">
+      <c r="AE2" s="3">
         <v>33329.568169999999</v>
       </c>
-      <c r="AE2" s="3">
+      <c r="AF2" s="3">
         <v>34267.479729999999</v>
       </c>
-      <c r="AF2" s="3">
+      <c r="AG2" s="3">
         <v>35155.495020000002</v>
       </c>
-      <c r="AG2" s="3">
+      <c r="AH2" s="3">
         <v>35826.942620000002</v>
       </c>
-      <c r="AH2" s="3">
+      <c r="AI2" s="3">
         <v>36350.502229999998</v>
       </c>
-      <c r="AI2" s="3">
+      <c r="AJ2" s="3">
         <v>36062.319150000003</v>
       </c>
-      <c r="AJ2" s="3">
+      <c r="AK2" s="3">
         <v>35280.877110000001</v>
       </c>
-      <c r="AK2" s="3">
+      <c r="AL2" s="3">
         <v>35656.258959999999</v>
       </c>
-      <c r="AL2" s="3">
+      <c r="AM2" s="3">
         <v>36000.369180000002</v>
       </c>
-      <c r="AM2" s="3">
+      <c r="AN2" s="3">
         <v>36225.887690000003</v>
       </c>
-      <c r="AN2" s="3">
+      <c r="AO2" s="3">
         <v>36603.181080000002</v>
       </c>
-      <c r="AO2" s="3">
+      <c r="AP2" s="3">
         <v>37364.14086</v>
       </c>
-      <c r="AP2" s="3">
+      <c r="AQ2" s="3">
         <v>38340.950839999998</v>
       </c>
-      <c r="AQ2" s="3">
+      <c r="AR2" s="3">
         <v>38998.402800000003</v>
       </c>
-      <c r="AR2" s="3">
+      <c r="AS2" s="3">
         <v>39774.807489999999</v>
       </c>
-      <c r="AS2" s="3">
+      <c r="AT2" s="3">
         <v>40650.48098</v>
       </c>
-      <c r="AT2" s="3">
+      <c r="AU2" s="3">
         <v>41334.696530000001</v>
       </c>
-      <c r="AU2" s="3">
+      <c r="AV2" s="3">
         <v>39898.878940000002</v>
       </c>
-      <c r="AV2" s="3">
+      <c r="AW2" s="3">
         <v>43330.52173</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="3">
+      <c r="C3" s="3">
         <v>23284.391615511944</v>
       </c>
-      <c r="C3" s="3">
+      <c r="D3" s="3">
         <v>24224.259352819765</v>
       </c>
-      <c r="D3" s="3">
+      <c r="E3" s="3">
         <v>24949.178427358576</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="3">
         <v>25954.231982302237</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G3" s="3">
         <v>25504.956042231239</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H3" s="3">
         <v>24691.338433598459</v>
       </c>
-      <c r="H3" s="3">
+      <c r="I3" s="3">
         <v>25499.387639619636</v>
       </c>
-      <c r="I3" s="3">
+      <c r="J3" s="3">
         <v>25554.194907916739</v>
       </c>
-      <c r="J3" s="3">
+      <c r="K3" s="3">
         <v>26132.288652173505</v>
       </c>
-      <c r="K3" s="3">
+      <c r="L3" s="3">
         <v>28004.79775648654</v>
       </c>
-      <c r="L3" s="3">
+      <c r="M3" s="3">
         <v>28914.927931869981</v>
       </c>
-      <c r="M3" s="3">
+      <c r="N3" s="3">
         <v>29652.848501886685</v>
       </c>
-      <c r="N3" s="3">
+      <c r="O3" s="3">
         <v>30453.29270769408</v>
       </c>
-      <c r="O3" s="3">
+      <c r="P3" s="3">
         <v>31923.576510855386</v>
       </c>
-      <c r="P3" s="3">
+      <c r="Q3" s="3">
         <v>32356.277336136591</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="R3" s="3">
         <v>32417.20639728937</v>
       </c>
-      <c r="R3" s="3">
+      <c r="S3" s="3">
         <v>32091.46079301061</v>
       </c>
-      <c r="S3" s="3">
+      <c r="T3" s="3">
         <v>32746.881098427664</v>
       </c>
-      <c r="T3" s="3">
+      <c r="U3" s="3">
         <v>33054.332094700818</v>
       </c>
-      <c r="U3" s="3">
+      <c r="V3" s="3">
         <v>34109.930400796409</v>
       </c>
-      <c r="V3" s="3">
+      <c r="W3" s="3">
         <v>34835.762025044271</v>
       </c>
-      <c r="W3" s="3">
+      <c r="X3" s="3">
         <v>35927.4736334642</v>
       </c>
-      <c r="X3" s="3">
+      <c r="Y3" s="3">
         <v>37420.882521429332</v>
       </c>
-      <c r="Y3" s="3">
+      <c r="Z3" s="3">
         <v>39174.164357157846</v>
       </c>
-      <c r="Z3" s="3">
+      <c r="AA3" s="3">
         <v>40340.471194038269</v>
       </c>
-      <c r="AA3" s="3">
+      <c r="AB3" s="3">
         <v>41418.233811708917</v>
       </c>
-      <c r="AB3" s="3">
+      <c r="AC3" s="3">
         <v>41634.570070798145</v>
       </c>
-      <c r="AC3" s="3">
+      <c r="AD3" s="3">
         <v>41857.554871889472</v>
       </c>
-      <c r="AD3" s="3">
+      <c r="AE3" s="3">
         <v>42297.268604805933</v>
       </c>
-      <c r="AE3" s="3">
+      <c r="AF3" s="3">
         <v>43518.860378456455</v>
       </c>
-      <c r="AF3" s="3">
+      <c r="AG3" s="3">
         <v>44306.583470384408</v>
       </c>
-      <c r="AG3" s="3">
+      <c r="AH3" s="3">
         <v>45531.812707957419</v>
       </c>
-      <c r="AH3" s="3">
+      <c r="AI3" s="3">
         <v>45245.310589251632</v>
       </c>
-      <c r="AI3" s="3">
+      <c r="AJ3" s="3">
         <v>43616.719411616308</v>
       </c>
-      <c r="AJ3" s="3">
+      <c r="AK3" s="3">
         <v>42771.43334880154</v>
       </c>
-      <c r="AK3" s="3">
+      <c r="AL3" s="3">
         <v>44247.7128088397</v>
       </c>
-      <c r="AL3" s="3">
+      <c r="AM3" s="3">
         <v>44827.374440871186</v>
       </c>
-      <c r="AM3" s="3">
+      <c r="AN3" s="3">
         <v>46213.211840482232</v>
       </c>
-      <c r="AN3" s="3">
+      <c r="AO3" s="3">
         <v>46541.69085959591</v>
       </c>
-      <c r="AO3" s="3">
+      <c r="AP3" s="3">
         <v>47749.146639035644</v>
       </c>
-      <c r="AP3" s="3">
+      <c r="AQ3" s="3">
         <v>49077.966343570617</v>
       </c>
-      <c r="AQ3" s="3">
+      <c r="AR3" s="3">
         <v>48992.501523808132</v>
       </c>
-      <c r="AR3" s="3">
+      <c r="AS3" s="3">
         <v>49991.960302989923</v>
       </c>
-      <c r="AS3" s="3">
+      <c r="AT3" s="3">
         <v>51219.048073053469</v>
       </c>
-      <c r="AT3" s="3">
+      <c r="AU3" s="3">
         <v>52190.192657029715</v>
       </c>
-      <c r="AU3" s="3">
+      <c r="AV3" s="3">
         <v>49670.46560153555</v>
       </c>
-      <c r="AV3" s="3">
+      <c r="AW3" s="3">
         <v>52320.656091581986</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C4" s="1">
         <v>9.1431468649653507</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>5.7448126354908498</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>6.5016839947284</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>7.6309638388560597</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>11.2544711292795</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>13.549201974968399</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>10.3347153402771</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>6.1314270002749298</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>3.21243523316065</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>4.3005354752342901</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <v>3.5456441520936499</v>
       </c>
-      <c r="M4" s="1">
+      <c r="N4" s="1">
         <v>1.8980477223427601</v>
       </c>
-      <c r="N4" s="1">
+      <c r="O4" s="1">
         <v>3.6645632175168998</v>
       </c>
-      <c r="O4" s="1">
+      <c r="P4" s="1">
         <v>4.0777411074441297</v>
       </c>
-      <c r="P4" s="1">
+      <c r="Q4" s="1">
         <v>4.8270030300894398</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="R4" s="1">
         <v>5.3979564399032496</v>
       </c>
-      <c r="R4" s="1">
+      <c r="S4" s="1">
         <v>4.2349639645384904</v>
       </c>
-      <c r="S4" s="1">
+      <c r="T4" s="1">
         <v>3.0288196781496901</v>
       </c>
-      <c r="T4" s="1">
+      <c r="U4" s="1">
         <v>2.9516569663855901</v>
       </c>
-      <c r="U4" s="1">
+      <c r="V4" s="1">
         <v>2.60744159215453</v>
       </c>
-      <c r="V4" s="1">
+      <c r="W4" s="1">
         <v>2.8054196885366198</v>
       </c>
-      <c r="W4" s="1">
+      <c r="X4" s="1">
         <v>2.9312041999344101</v>
       </c>
-      <c r="X4" s="1">
+      <c r="Y4" s="1">
         <v>2.3376899373073501</v>
       </c>
-      <c r="Y4" s="1">
+      <c r="Z4" s="1">
         <v>1.5522790987436399</v>
       </c>
-      <c r="Z4" s="1">
+      <c r="AA4" s="1">
         <v>2.1880271969735801</v>
       </c>
-      <c r="AA4" s="1">
+      <c r="AB4" s="1">
         <v>3.3768572714992899</v>
       </c>
-      <c r="AB4" s="1">
+      <c r="AC4" s="1">
         <v>2.8261711188540701</v>
       </c>
-      <c r="AC4" s="1">
+      <c r="AD4" s="1">
         <v>1.5860316265060099</v>
       </c>
-      <c r="AD4" s="1">
+      <c r="AE4" s="1">
         <v>2.2700949733611502</v>
       </c>
-      <c r="AE4" s="1">
+      <c r="AF4" s="1">
         <v>2.6772366930917202</v>
       </c>
-      <c r="AF4" s="1">
+      <c r="AG4" s="1">
         <v>3.3927468454955001</v>
       </c>
-      <c r="AG4" s="1">
+      <c r="AH4" s="1">
         <v>3.2259441007040399</v>
       </c>
-      <c r="AH4" s="1">
+      <c r="AI4" s="1">
         <v>2.8526724815013802</v>
       </c>
-      <c r="AI4" s="1">
+      <c r="AJ4" s="1">
         <v>3.8391002966509999</v>
       </c>
-      <c r="AJ4" s="1">
+      <c r="AK4" s="1">
         <v>-0.355546266299747</v>
       </c>
-      <c r="AK4" s="1">
+      <c r="AL4" s="1">
         <v>1.6400434423899</v>
       </c>
-      <c r="AL4" s="1">
+      <c r="AM4" s="1">
         <v>3.1568415686220002</v>
       </c>
-      <c r="AM4" s="1">
+      <c r="AN4" s="1">
         <v>2.0693372652606699</v>
       </c>
-      <c r="AN4" s="1">
+      <c r="AO4" s="1">
         <v>1.46483265562717</v>
       </c>
-      <c r="AO4" s="1">
+      <c r="AP4" s="1">
         <v>1.62222297740817</v>
       </c>
-      <c r="AP4" s="1">
+      <c r="AQ4" s="1">
         <v>0.118627135552451</v>
       </c>
-      <c r="AQ4" s="1">
+      <c r="AR4" s="1">
         <v>1.26158320570536</v>
       </c>
-      <c r="AR4" s="1">
+      <c r="AS4" s="1">
         <v>2.1301100036596101</v>
       </c>
-      <c r="AS4" s="1">
+      <c r="AT4" s="1">
         <v>2.44258329692817</v>
       </c>
-      <c r="AT4" s="1">
+      <c r="AU4" s="1">
         <v>1.8122100752602099</v>
       </c>
-      <c r="AU4" s="1">
+      <c r="AV4" s="1">
         <v>1.23358439630629</v>
       </c>
-      <c r="AV4" s="1">
+      <c r="AW4" s="1">
         <v>4.6978588636374203</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" t="s">
         <v>71</v>
-      </c>
-      <c r="B5" s="2">
-        <v>35.6</v>
       </c>
       <c r="C5" s="2">
         <v>35.6</v>
       </c>
       <c r="D5" s="2">
+        <v>35.6</v>
+      </c>
+      <c r="E5" s="2">
         <v>35.5</v>
-      </c>
-      <c r="E5" s="2">
-        <v>34.799999999999997</v>
       </c>
       <c r="F5" s="2">
         <v>34.799999999999997</v>
       </c>
       <c r="G5" s="2">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="H5" s="2">
         <v>34.700000000000003</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <v>35.5</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <v>36.700000000000003</v>
-      </c>
-      <c r="J5" s="2">
-        <v>37.299999999999997</v>
       </c>
       <c r="K5" s="2">
         <v>37.299999999999997</v>
       </c>
       <c r="L5" s="2">
-        <v>37.6</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="M5" s="2">
         <v>37.6</v>
       </c>
       <c r="N5" s="2">
+        <v>37.6</v>
+      </c>
+      <c r="O5" s="2">
         <v>37.200000000000003</v>
       </c>
-      <c r="O5" s="2">
+      <c r="P5" s="2">
         <v>37.700000000000003</v>
       </c>
-      <c r="P5" s="2">
+      <c r="Q5" s="2">
         <v>38.200000000000003</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="R5" s="2">
         <v>38.299999999999997</v>
       </c>
-      <c r="R5" s="2">
+      <c r="S5" s="2">
         <v>38</v>
       </c>
-      <c r="S5" s="2">
+      <c r="T5" s="2">
         <v>38.4</v>
       </c>
-      <c r="T5" s="2">
+      <c r="U5" s="2">
         <v>40.4</v>
       </c>
-      <c r="U5" s="2">
+      <c r="V5" s="2">
         <v>40</v>
       </c>
-      <c r="V5" s="2">
+      <c r="W5" s="2">
         <v>39.9</v>
       </c>
-      <c r="W5" s="2">
+      <c r="X5" s="2">
         <v>40.299999999999997</v>
       </c>
-      <c r="X5" s="2">
+      <c r="Y5" s="2">
         <v>40.5</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>40</v>
       </c>
       <c r="Z5" s="2">
         <v>40</v>
       </c>
       <c r="AA5" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB5" s="2">
         <v>40.1</v>
       </c>
-      <c r="AB5" s="2">
+      <c r="AC5" s="2">
         <v>40.6</v>
       </c>
-      <c r="AC5" s="2">
+      <c r="AD5" s="2">
         <v>40.4</v>
       </c>
-      <c r="AD5" s="2">
+      <c r="AE5" s="2">
         <v>40.799999999999997</v>
       </c>
-      <c r="AE5" s="2">
+      <c r="AF5" s="2">
         <v>40.299999999999997</v>
       </c>
-      <c r="AF5" s="2">
+      <c r="AG5" s="2">
         <v>41</v>
       </c>
-      <c r="AG5" s="2">
+      <c r="AH5" s="2">
         <v>41.4</v>
-      </c>
-      <c r="AH5" s="2">
-        <v>40.799999999999997</v>
       </c>
       <c r="AI5" s="2">
         <v>40.799999999999997</v>
       </c>
       <c r="AJ5" s="2">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="AK5" s="2">
         <v>40.6</v>
       </c>
-      <c r="AK5" s="2">
+      <c r="AL5" s="2">
         <v>40</v>
-      </c>
-      <c r="AL5" s="2">
-        <v>40.9</v>
       </c>
       <c r="AM5" s="2">
         <v>40.9</v>
       </c>
       <c r="AN5" s="2">
+        <v>40.9</v>
+      </c>
+      <c r="AO5" s="2">
         <v>40.6</v>
       </c>
-      <c r="AO5" s="2">
+      <c r="AP5" s="2">
         <v>41.5</v>
       </c>
-      <c r="AP5" s="2">
+      <c r="AQ5" s="2">
         <v>41.2</v>
       </c>
-      <c r="AQ5" s="2">
+      <c r="AR5" s="2">
         <v>41.1</v>
       </c>
-      <c r="AR5" s="2">
+      <c r="AS5" s="2">
         <v>41.2</v>
       </c>
-      <c r="AS5" s="2">
+      <c r="AT5" s="2">
         <v>41.4</v>
       </c>
-      <c r="AT5" s="2">
+      <c r="AU5" s="2">
         <v>41.5</v>
-      </c>
-      <c r="AU5" s="2">
-        <v>39.700000000000003</v>
       </c>
       <c r="AV5" s="2">
         <v>39.700000000000003</v>
       </c>
-    </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="AW5" s="2">
+        <v>39.700000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="3">
+      <c r="C6" s="3">
         <v>703800000000</v>
       </c>
-      <c r="C6" s="3">
+      <c r="D6" s="3">
         <v>883100000000</v>
       </c>
-      <c r="D6" s="3">
+      <c r="E6" s="3">
         <v>834238000000</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F6" s="3">
         <v>861961000000</v>
       </c>
-      <c r="F6" s="3">
+      <c r="G6" s="3">
         <v>993590900000</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H6" s="3">
         <v>1359797800000</v>
       </c>
-      <c r="H6" s="3">
+      <c r="I6" s="3">
         <v>1263560700000</v>
       </c>
-      <c r="I6" s="3">
+      <c r="J6" s="3">
         <v>1456865200000</v>
       </c>
-      <c r="J6" s="3">
+      <c r="K6" s="3">
         <v>1809034400000</v>
       </c>
-      <c r="K6" s="3">
+      <c r="L6" s="3">
         <v>1602159700000</v>
       </c>
-      <c r="L6" s="3">
+      <c r="M6" s="3">
         <v>2300857900000</v>
       </c>
-      <c r="M6" s="3">
+      <c r="N6" s="3">
         <v>2537942200000</v>
       </c>
-      <c r="N6" s="3">
+      <c r="O6" s="3">
         <v>2531767700000</v>
       </c>
-      <c r="O6" s="3">
+      <c r="P6" s="3">
         <v>2779940700000</v>
       </c>
-      <c r="P6" s="3">
+      <c r="Q6" s="3">
         <v>3382233600000</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="R6" s="3">
         <v>3093448500000</v>
       </c>
-      <c r="R6" s="3">
+      <c r="S6" s="3">
         <v>4159595200000</v>
       </c>
-      <c r="S6" s="3">
+      <c r="T6" s="3">
         <v>4545844000000</v>
       </c>
-      <c r="T6" s="3">
+      <c r="U6" s="3">
         <v>5251079630000</v>
       </c>
-      <c r="U6" s="3">
+      <c r="V6" s="3">
         <v>5137739860000</v>
       </c>
-      <c r="V6" s="3">
+      <c r="W6" s="3">
         <v>6952026000000</v>
       </c>
-      <c r="W6" s="3">
+      <c r="X6" s="3">
         <v>8480497000000</v>
       </c>
-      <c r="X6" s="3">
+      <c r="Y6" s="3">
         <v>10770143000000</v>
       </c>
-      <c r="Y6" s="3">
+      <c r="Z6" s="3">
         <v>12922580000000</v>
       </c>
-      <c r="Z6" s="3">
+      <c r="AA6" s="3">
         <v>14777387400000</v>
       </c>
-      <c r="AA6" s="3">
+      <c r="AB6" s="3">
         <v>15107751000000</v>
       </c>
-      <c r="AB6" s="3">
+      <c r="AC6" s="3">
         <v>13983666000000</v>
       </c>
-      <c r="AC6" s="3">
+      <c r="AD6" s="3">
         <v>11054430000000</v>
       </c>
-      <c r="AD6" s="3">
+      <c r="AE6" s="3">
         <v>14266265650000</v>
       </c>
-      <c r="AE6" s="3">
+      <c r="AF6" s="3">
         <v>16323726330000</v>
       </c>
-      <c r="AF6" s="3">
+      <c r="AG6" s="3">
         <v>17000864469999.998</v>
       </c>
-      <c r="AG6" s="3">
+      <c r="AH6" s="3">
         <v>19568972500000</v>
       </c>
-      <c r="AH6" s="3">
+      <c r="AI6" s="3">
         <v>19922279820000</v>
       </c>
-      <c r="AI6" s="3">
+      <c r="AJ6" s="3">
         <v>11590277780000</v>
       </c>
-      <c r="AJ6" s="3">
+      <c r="AK6" s="3">
         <v>15077285740000</v>
       </c>
-      <c r="AK6" s="3">
+      <c r="AL6" s="3">
         <v>17283451680000</v>
       </c>
-      <c r="AL6" s="3">
+      <c r="AM6" s="3">
         <v>15640707040000</v>
       </c>
-      <c r="AM6" s="3">
+      <c r="AN6" s="3">
         <v>18668333210000</v>
       </c>
-      <c r="AN6" s="3">
+      <c r="AO6" s="3">
         <v>24034853520000</v>
       </c>
-      <c r="AO6" s="3">
+      <c r="AP6" s="3">
         <v>26330589190000</v>
       </c>
-      <c r="AP6" s="3">
+      <c r="AQ6" s="3">
         <v>25067539600000</v>
       </c>
-      <c r="AQ6" s="3">
+      <c r="AR6" s="3">
         <v>27352200720000</v>
       </c>
-      <c r="AR6" s="3">
+      <c r="AS6" s="3">
         <v>32120702650000</v>
       </c>
-      <c r="AS6" s="3">
+      <c r="AT6" s="3">
         <v>30436313050000</v>
       </c>
-      <c r="AT6" s="3">
+      <c r="AU6" s="3">
         <v>34085727370000</v>
       </c>
-      <c r="AU6" s="3">
+      <c r="AV6" s="3">
         <v>41569861770000</v>
       </c>
-      <c r="AV6" s="3">
+      <c r="AW6" s="3">
         <v>48548538120000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="3">
+        <v>9456.6348070521071</v>
+      </c>
+      <c r="D7" s="3">
+        <v>9627.7123182742398</v>
+      </c>
+      <c r="E7" s="3">
+        <v>9920.3456977382029</v>
+      </c>
+      <c r="F7" s="3">
+        <v>10346.658308485539</v>
+      </c>
+      <c r="G7" s="3">
+        <v>10925.208306801964</v>
+      </c>
+      <c r="H7" s="3">
+        <v>10955.152837629201</v>
+      </c>
+      <c r="I7" s="3">
+        <v>11149.901957858696</v>
+      </c>
+      <c r="J7" s="3">
+        <v>11588.994335694033</v>
+      </c>
+      <c r="K7" s="3">
+        <v>11897.427194644573</v>
+      </c>
+      <c r="L7" s="3">
+        <v>12192.809053272498</v>
+      </c>
+      <c r="M7" s="3">
+        <v>12613.528687707212</v>
+      </c>
+      <c r="N7" s="3">
+        <v>13007.846876641212</v>
+      </c>
+      <c r="O7" s="3">
+        <v>13511.650000918022</v>
+      </c>
+      <c r="P7" s="3">
+        <v>14147.911733337116</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>14785.369005817083</v>
+      </c>
+      <c r="R7" s="3">
+        <v>15438.911186799216</v>
+      </c>
+      <c r="S7" s="3">
+        <v>15719.740278312149</v>
+      </c>
+      <c r="T7" s="3">
+        <v>16017.824540144065</v>
+      </c>
+      <c r="U7" s="3">
+        <v>16137.978294896026</v>
+      </c>
+      <c r="V7" s="3">
+        <v>16460.631774959715</v>
+      </c>
+      <c r="W7" s="3">
+        <v>16826.417235556648</v>
+      </c>
+      <c r="X7" s="3">
+        <v>17117.04205921647</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>17170.987608860287</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>17013.627326094502</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>17163.920266750312</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>17399.11291824812</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>17713.177192737163</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>17899.769242262639</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>17974.771779191924</v>
+      </c>
+      <c r="AF7" s="3">
+        <v>18206.191845541762</v>
+      </c>
+      <c r="AG7" s="3">
+        <v>18483.129072590451</v>
+      </c>
+      <c r="AH7" s="3">
+        <v>18642.904652438701</v>
+      </c>
+      <c r="AI7" s="3">
+        <v>18762.118996767062</v>
+      </c>
+      <c r="AJ7" s="3">
+        <v>18540.530274656234</v>
+      </c>
+      <c r="AK7" s="3">
+        <v>18373.162174374862</v>
+      </c>
+      <c r="AL7" s="3">
+        <v>18797.965609383395</v>
+      </c>
+      <c r="AM7" s="3">
+        <v>18734.040857077664</v>
+      </c>
+      <c r="AN7" s="3">
+        <v>19144.624779475762</v>
+      </c>
+      <c r="AO7" s="3">
+        <v>19671.919648031577</v>
+      </c>
+      <c r="AP7" s="3">
+        <v>19519.460694452791</v>
+      </c>
+      <c r="AQ7" s="3">
+        <v>19497.827102197381</v>
+      </c>
+      <c r="AR7" s="3">
+        <v>19424.565554030691</v>
+      </c>
+      <c r="AS7" s="3">
+        <v>19645.066765817868</v>
+      </c>
+      <c r="AT7" s="3">
+        <v>19715.403242230488</v>
+      </c>
+      <c r="AU7" s="3">
+        <v>19619.976630659556</v>
+      </c>
+      <c r="AV7" s="3">
+        <v>18803.014638046352</v>
+      </c>
+      <c r="AW7" s="3">
+        <v>19037.611669264974</v>
+      </c>
+    </row>
+    <row r="8" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="3">
+        <v>14102.69164648237</v>
+      </c>
+      <c r="D8" s="3">
+        <v>14647.06439506061</v>
+      </c>
+      <c r="E8" s="3">
+        <v>15214.42996771421</v>
+      </c>
+      <c r="F8" s="3">
+        <v>16056.819488225376</v>
+      </c>
+      <c r="G8" s="3">
+        <v>16389.53593245061</v>
+      </c>
+      <c r="H8" s="3">
+        <v>16290.424149130547</v>
+      </c>
+      <c r="I8" s="3">
+        <v>16700.088683667938</v>
+      </c>
+      <c r="J8" s="3">
+        <v>17096.353482805956</v>
+      </c>
+      <c r="K8" s="3">
+        <v>17437.215881929984</v>
+      </c>
+      <c r="L8" s="3">
+        <v>18154.871243954967</v>
+      </c>
+      <c r="M8" s="3">
+        <v>19166.238861775044</v>
+      </c>
+      <c r="N8" s="3">
+        <v>19884.439703440385</v>
+      </c>
+      <c r="O8" s="3">
+        <v>20570.858676414464</v>
+      </c>
+      <c r="P8" s="3">
+        <v>21998.699775847726</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>22887.451473595123</v>
+      </c>
+      <c r="R8" s="3">
+        <v>23891.102678967542</v>
+      </c>
+      <c r="S8" s="3">
+        <v>24367.943527404284</v>
+      </c>
+      <c r="T8" s="3">
+        <v>24237.680154175097</v>
+      </c>
+      <c r="U8" s="3">
+        <v>23942.976067639513</v>
+      </c>
+      <c r="V8" s="3">
+        <v>24433.955683224009</v>
+      </c>
+      <c r="W8" s="3">
+        <v>25142.446590664673</v>
+      </c>
+      <c r="X8" s="3">
+        <v>25945.625810720278</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>25903.691516748018</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>25355.317814312202</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>25082.844868648728</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>25726.833979553525</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>25795.424979482243</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>25619.500713500132</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>25978.033586500555</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>26597.914256688135</v>
+      </c>
+      <c r="AG8" s="3">
+        <v>26934.849279392954</v>
+      </c>
+      <c r="AH8" s="3">
+        <v>27051.692520711989</v>
+      </c>
+      <c r="AI8" s="3">
+        <v>27312.114104509976</v>
+      </c>
+      <c r="AJ8" s="3">
+        <v>26020.688158929937</v>
+      </c>
+      <c r="AK8" s="3">
+        <v>24510.107482457392</v>
+      </c>
+      <c r="AL8" s="3">
+        <v>25719.781371293426</v>
+      </c>
+      <c r="AM8" s="3">
+        <v>25572.95362083791</v>
+      </c>
+      <c r="AN8" s="3">
+        <v>26015.128274636525</v>
+      </c>
+      <c r="AO8" s="3">
+        <v>26755.657775908057</v>
+      </c>
+      <c r="AP8" s="3">
+        <v>26886.020643449483</v>
+      </c>
+      <c r="AQ8" s="3">
+        <v>28006.306867406423</v>
+      </c>
+      <c r="AR8" s="3">
+        <v>28412.549489899124</v>
+      </c>
+      <c r="AS8" s="3">
+        <v>28832.862637905753</v>
+      </c>
+      <c r="AT8" s="3">
+        <v>28762.416500272513</v>
+      </c>
+      <c r="AU8" s="3">
+        <v>28694.791597665997</v>
+      </c>
+      <c r="AV8" s="3">
+        <v>27232.521434157494</v>
+      </c>
+      <c r="AW8" s="3">
+        <v>27008.840862738867</v>
       </c>
     </row>
   </sheetData>
